--- a/src/main/scripts/db/Data.xlsx
+++ b/src/main/scripts/db/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TeamsGroup\Скрипты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TeamsGroup\Project_BusRoutes\src\main\scripts\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55032D46-65F6-457F-A1C2-27B3CA9CD8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBA02E0-B657-4846-801F-44F7A0071A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A1A8A948-DE39-4851-BC80-0E2426CC8D45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="136">
   <si>
     <t>53.20348919424873</t>
   </si>
@@ -147,16 +147,7 @@
     <t>bus_stop_id</t>
   </si>
   <si>
-    <t>bus_at_stop_id</t>
-  </si>
-  <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>route_with_stops_id</t>
-  </si>
-  <si>
-    <t>route_with_stops</t>
   </si>
   <si>
     <t>route_id</t>
@@ -795,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDCD5D4-6331-4087-8959-908183382858}">
-  <dimension ref="A1:W174"/>
+  <dimension ref="A1:U174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W174" sqref="O3:W174"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,21 +810,18 @@
     <col min="22" max="22" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" t="s">
-        <v>43</v>
-      </c>
       <c r="P1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -864,12 +852,6 @@
       <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
       <c r="P2" t="s">
         <v>39</v>
       </c>
@@ -879,11 +861,8 @@
       <c r="T2" t="s">
         <v>41</v>
       </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -900,55 +879,43 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I3">
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="O3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R3">
+        <v>20</v>
+      </c>
+      <c r="S3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T3">
         <v>1</v>
       </c>
-      <c r="S3" t="s">
-        <v>137</v>
-      </c>
-      <c r="T3">
-        <v>20</v>
-      </c>
       <c r="U3" t="s">
-        <v>137</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -965,55 +932,43 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I4">
         <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="O4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T4">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>137</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1021,64 +976,52 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I5">
         <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P5">
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="S5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T5">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>137</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1086,64 +1029,52 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P6">
         <v>4</v>
       </c>
       <c r="Q6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T6">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="U6" t="s">
-        <v>137</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1151,64 +1082,52 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I7">
         <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P7">
         <v>5</v>
       </c>
       <c r="Q7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="S7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="U7" t="s">
-        <v>137</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1216,64 +1135,52 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I8">
         <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M8">
-        <v>6</v>
-      </c>
-      <c r="N8">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P8">
         <v>6</v>
       </c>
       <c r="Q8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R8">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="S8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T8">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>137</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1281,64 +1188,52 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I9">
         <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9">
-        <v>7</v>
-      </c>
-      <c r="N9">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="O9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P9">
         <v>7</v>
       </c>
       <c r="Q9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R9">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="S9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T9">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="U9" t="s">
-        <v>137</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1346,64 +1241,52 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I10">
         <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M10">
-        <v>8</v>
-      </c>
-      <c r="N10">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P10">
         <v>8</v>
       </c>
       <c r="Q10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R10">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="S10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T10">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="U10" t="s">
-        <v>137</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1421,34 +1304,28 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="O11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P11">
         <v>9</v>
       </c>
       <c r="Q11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R11">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="S11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T11">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="U11" t="s">
-        <v>137</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1456,44 +1333,38 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="O12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P12">
         <v>10</v>
       </c>
       <c r="Q12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R12">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="S12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T12">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="U12" t="s">
-        <v>137</v>
-      </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1501,44 +1372,38 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="O13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P13">
         <v>11</v>
       </c>
       <c r="Q13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R13">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="S13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T13">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="U13" t="s">
-        <v>137</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1546,44 +1411,38 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="O14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P14">
         <v>12</v>
       </c>
       <c r="Q14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R14">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="S14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T14">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="U14" t="s">
-        <v>137</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="W14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1591,44 +1450,38 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="O15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P15">
         <v>13</v>
       </c>
       <c r="Q15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R15">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="S15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T15">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="U15" t="s">
-        <v>137</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1636,44 +1489,38 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="O16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P16">
         <v>14</v>
       </c>
       <c r="Q16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R16">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="S16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T16">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="U16" t="s">
-        <v>137</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1681,44 +1528,38 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="O17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P17">
         <v>15</v>
       </c>
       <c r="Q17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R17">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="S17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T17">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="U17" t="s">
-        <v>137</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1726,44 +1567,38 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="O18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P18">
         <v>16</v>
       </c>
       <c r="Q18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R18">
-        <v>16</v>
+        <v>320</v>
       </c>
       <c r="S18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T18">
-        <v>320</v>
+        <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>137</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1771,44 +1606,38 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="O19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P19">
         <v>17</v>
       </c>
       <c r="Q19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R19">
-        <v>17</v>
+        <v>340</v>
       </c>
       <c r="S19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T19">
-        <v>340</v>
+        <v>1</v>
       </c>
       <c r="U19" t="s">
-        <v>137</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1816,44 +1645,38 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="O20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P20">
         <v>18</v>
       </c>
       <c r="Q20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R20">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="S20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T20">
-        <v>360</v>
+        <v>1</v>
       </c>
       <c r="U20" t="s">
-        <v>137</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1861,44 +1684,38 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="O21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P21">
         <v>19</v>
       </c>
       <c r="Q21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R21">
-        <v>19</v>
+        <v>380</v>
       </c>
       <c r="S21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T21">
-        <v>380</v>
+        <v>1</v>
       </c>
       <c r="U21" t="s">
-        <v>137</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1906,44 +1723,38 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="O22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P22">
         <v>20</v>
       </c>
       <c r="Q22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R22">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="S22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T22">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="U22" t="s">
-        <v>137</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1951,359 +1762,311 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="O23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P23">
         <v>21</v>
       </c>
       <c r="Q23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R23">
-        <v>21</v>
+        <v>420</v>
       </c>
       <c r="S23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T23">
-        <v>420</v>
+        <v>1</v>
       </c>
       <c r="U23" t="s">
-        <v>137</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="O24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R24">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T24">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="U24" t="s">
-        <v>137</v>
-      </c>
-      <c r="V24">
-        <v>2</v>
-      </c>
-      <c r="W24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="O25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P25">
         <v>2</v>
       </c>
       <c r="Q25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R25">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="S25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T25">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="U25" t="s">
-        <v>137</v>
-      </c>
-      <c r="V25">
-        <v>2</v>
-      </c>
-      <c r="W25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="O26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P26">
         <v>3</v>
       </c>
       <c r="Q26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R26">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="S26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T26">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="U26" t="s">
-        <v>137</v>
-      </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
-      <c r="W26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="O27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P27">
         <v>4</v>
       </c>
       <c r="Q27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R27">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T27">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="U27" t="s">
-        <v>137</v>
-      </c>
-      <c r="V27">
-        <v>2</v>
-      </c>
-      <c r="W27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="O28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P28">
         <v>5</v>
       </c>
       <c r="Q28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R28">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="S28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T28">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="U28" t="s">
-        <v>137</v>
-      </c>
-      <c r="V28">
-        <v>2</v>
-      </c>
-      <c r="W28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="O29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P29">
         <v>6</v>
       </c>
       <c r="Q29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R29">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="S29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T29">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="U29" t="s">
-        <v>137</v>
-      </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
-      <c r="W29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="O30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P30">
         <v>7</v>
       </c>
       <c r="Q30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R30">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="S30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T30">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="U30" t="s">
-        <v>137</v>
-      </c>
-      <c r="V30">
-        <v>2</v>
-      </c>
-      <c r="W30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2311,4385 +2074,3521 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="O31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P31">
         <v>8</v>
       </c>
       <c r="Q31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R31">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="S31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T31">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="U31" t="s">
-        <v>137</v>
-      </c>
-      <c r="V31">
-        <v>2</v>
-      </c>
-      <c r="W31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="O32" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P32">
         <v>9</v>
       </c>
       <c r="Q32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R32">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="S32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T32">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="U32" t="s">
-        <v>137</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
-      <c r="W32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="O33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P33">
         <v>10</v>
       </c>
       <c r="Q33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R33">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="S33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T33">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="U33" t="s">
-        <v>137</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
-      <c r="W33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="O34" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P34">
         <v>11</v>
       </c>
       <c r="Q34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R34">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="S34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T34">
-        <v>220</v>
+        <v>2</v>
       </c>
       <c r="U34" t="s">
-        <v>137</v>
-      </c>
-      <c r="V34">
-        <v>2</v>
-      </c>
-      <c r="W34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="O35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P35">
         <v>12</v>
       </c>
       <c r="Q35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R35">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="S35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T35">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="U35" t="s">
-        <v>137</v>
-      </c>
-      <c r="V35">
-        <v>2</v>
-      </c>
-      <c r="W35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="O36" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P36">
         <v>13</v>
       </c>
       <c r="Q36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R36">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="S36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T36">
-        <v>260</v>
+        <v>2</v>
       </c>
       <c r="U36" t="s">
-        <v>137</v>
-      </c>
-      <c r="V36">
-        <v>2</v>
-      </c>
-      <c r="W36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="O37" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P37">
         <v>14</v>
       </c>
       <c r="Q37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R37">
-        <v>35</v>
+        <v>280</v>
       </c>
       <c r="S37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T37">
-        <v>280</v>
+        <v>2</v>
       </c>
       <c r="U37" t="s">
-        <v>137</v>
-      </c>
-      <c r="V37">
-        <v>2</v>
-      </c>
-      <c r="W37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="O38" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P38">
         <v>15</v>
       </c>
       <c r="Q38" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R38">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="S38" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T38">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="U38" t="s">
-        <v>137</v>
-      </c>
-      <c r="V38">
-        <v>2</v>
-      </c>
-      <c r="W38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="O39" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P39">
         <v>16</v>
       </c>
       <c r="Q39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R39">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="S39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T39">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="U39" t="s">
-        <v>137</v>
-      </c>
-      <c r="V39">
-        <v>2</v>
-      </c>
-      <c r="W39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="O40" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P40">
         <v>17</v>
       </c>
       <c r="Q40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R40">
-        <v>38</v>
+        <v>340</v>
       </c>
       <c r="S40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T40">
-        <v>340</v>
+        <v>2</v>
       </c>
       <c r="U40" t="s">
-        <v>137</v>
-      </c>
-      <c r="V40">
-        <v>2</v>
-      </c>
-      <c r="W40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="O41" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P41">
         <v>18</v>
       </c>
       <c r="Q41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R41">
-        <v>39</v>
+        <v>360</v>
       </c>
       <c r="S41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T41">
-        <v>360</v>
+        <v>2</v>
       </c>
       <c r="U41" t="s">
-        <v>137</v>
-      </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
-      <c r="W41" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="O42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P42">
         <v>19</v>
       </c>
       <c r="Q42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R42">
-        <v>40</v>
+        <v>380</v>
       </c>
       <c r="S42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T42">
-        <v>380</v>
+        <v>2</v>
       </c>
       <c r="U42" t="s">
-        <v>137</v>
-      </c>
-      <c r="V42">
-        <v>2</v>
-      </c>
-      <c r="W42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="O43" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P43">
         <v>20</v>
       </c>
       <c r="Q43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R43">
-        <v>41</v>
+        <v>400</v>
       </c>
       <c r="S43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T43">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="U43" t="s">
-        <v>137</v>
-      </c>
-      <c r="V43">
-        <v>2</v>
-      </c>
-      <c r="W43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="O44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P44">
         <v>21</v>
       </c>
       <c r="Q44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R44">
-        <v>42</v>
+        <v>420</v>
       </c>
       <c r="S44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T44">
-        <v>420</v>
+        <v>2</v>
       </c>
       <c r="U44" t="s">
-        <v>137</v>
-      </c>
-      <c r="V44">
-        <v>2</v>
-      </c>
-      <c r="W44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="O45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P45">
         <v>21</v>
       </c>
       <c r="Q45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R45">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="S45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T45">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="U45" t="s">
-        <v>137</v>
-      </c>
-      <c r="V45">
-        <v>3</v>
-      </c>
-      <c r="W45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="O46" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P46">
         <v>22</v>
       </c>
       <c r="Q46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R46">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="S46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T46">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="U46" t="s">
-        <v>137</v>
-      </c>
-      <c r="V46">
-        <v>3</v>
-      </c>
-      <c r="W46" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="O47" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P47">
         <v>19</v>
       </c>
       <c r="Q47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R47">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="S47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T47">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="U47" t="s">
-        <v>137</v>
-      </c>
-      <c r="V47">
-        <v>3</v>
-      </c>
-      <c r="W47" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="O48" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P48">
         <v>18</v>
       </c>
       <c r="Q48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R48">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="S48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T48">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="U48" t="s">
-        <v>137</v>
-      </c>
-      <c r="V48">
-        <v>3</v>
-      </c>
-      <c r="W48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="O49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P49">
         <v>17</v>
       </c>
       <c r="Q49" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R49">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="S49" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T49">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="U49" t="s">
-        <v>137</v>
-      </c>
-      <c r="V49">
-        <v>3</v>
-      </c>
-      <c r="W49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="O50" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P50">
         <v>16</v>
       </c>
       <c r="Q50" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R50">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="S50" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T50">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="U50" t="s">
-        <v>137</v>
-      </c>
-      <c r="V50">
-        <v>3</v>
-      </c>
-      <c r="W50" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="O51" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P51">
         <v>15</v>
       </c>
       <c r="Q51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R51">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="S51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T51">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="U51" t="s">
-        <v>137</v>
-      </c>
-      <c r="V51">
-        <v>3</v>
-      </c>
-      <c r="W51" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="O52" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P52">
         <v>14</v>
       </c>
       <c r="Q52" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R52">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="S52" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T52">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="U52" t="s">
-        <v>137</v>
-      </c>
-      <c r="V52">
-        <v>3</v>
-      </c>
-      <c r="W52" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.3">
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="O53" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P53">
         <v>13</v>
       </c>
       <c r="Q53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R53">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="S53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T53">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="U53" t="s">
-        <v>137</v>
-      </c>
-      <c r="V53">
-        <v>3</v>
-      </c>
-      <c r="W53" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P54">
         <v>12</v>
       </c>
       <c r="Q54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R54">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="S54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T54">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="U54" t="s">
-        <v>137</v>
-      </c>
-      <c r="V54">
-        <v>3</v>
-      </c>
-      <c r="W54" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O55" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P55">
         <v>11</v>
       </c>
       <c r="Q55" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R55">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="S55" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T55">
-        <v>198</v>
+        <v>3</v>
       </c>
       <c r="U55" t="s">
-        <v>137</v>
-      </c>
-      <c r="V55">
-        <v>3</v>
-      </c>
-      <c r="W55" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O56" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P56">
         <v>23</v>
       </c>
       <c r="Q56" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R56">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="S56" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T56">
-        <v>216</v>
+        <v>3</v>
       </c>
       <c r="U56" t="s">
-        <v>137</v>
-      </c>
-      <c r="V56">
-        <v>3</v>
-      </c>
-      <c r="W56" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O57" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P57">
         <v>10</v>
       </c>
       <c r="Q57" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R57">
-        <v>55</v>
+        <v>234</v>
       </c>
       <c r="S57" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T57">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
-      </c>
-      <c r="V57">
-        <v>3</v>
-      </c>
-      <c r="W57" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O58" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P58">
         <v>9</v>
       </c>
       <c r="Q58" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R58">
-        <v>56</v>
+        <v>252</v>
       </c>
       <c r="S58" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T58">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="U58" t="s">
-        <v>137</v>
-      </c>
-      <c r="V58">
-        <v>3</v>
-      </c>
-      <c r="W58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O59" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P59">
         <v>24</v>
       </c>
       <c r="Q59" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R59">
-        <v>57</v>
+        <v>270</v>
       </c>
       <c r="S59" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T59">
-        <v>270</v>
+        <v>3</v>
       </c>
       <c r="U59" t="s">
-        <v>137</v>
-      </c>
-      <c r="V59">
-        <v>3</v>
-      </c>
-      <c r="W59" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O60" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P60">
         <v>25</v>
       </c>
       <c r="Q60" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R60">
-        <v>58</v>
+        <v>288</v>
       </c>
       <c r="S60" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T60">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="U60" t="s">
-        <v>137</v>
-      </c>
-      <c r="V60">
-        <v>3</v>
-      </c>
-      <c r="W60" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O61" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P61">
         <v>7</v>
       </c>
       <c r="Q61" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R61">
-        <v>59</v>
+        <v>306</v>
       </c>
       <c r="S61" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T61">
-        <v>306</v>
+        <v>3</v>
       </c>
       <c r="U61" t="s">
-        <v>137</v>
-      </c>
-      <c r="V61">
-        <v>3</v>
-      </c>
-      <c r="W61" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O62" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P62">
         <v>6</v>
       </c>
       <c r="Q62" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R62">
-        <v>60</v>
+        <v>324</v>
       </c>
       <c r="S62" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T62">
-        <v>324</v>
+        <v>3</v>
       </c>
       <c r="U62" t="s">
-        <v>137</v>
-      </c>
-      <c r="V62">
-        <v>3</v>
-      </c>
-      <c r="W62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O63" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P63">
         <v>5</v>
       </c>
       <c r="Q63" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R63">
-        <v>61</v>
+        <v>342</v>
       </c>
       <c r="S63" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T63">
-        <v>342</v>
+        <v>3</v>
       </c>
       <c r="U63" t="s">
-        <v>137</v>
-      </c>
-      <c r="V63">
-        <v>3</v>
-      </c>
-      <c r="W63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O64" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P64">
         <v>4</v>
       </c>
       <c r="Q64" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R64">
-        <v>62</v>
+        <v>360</v>
       </c>
       <c r="S64" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T64">
-        <v>360</v>
+        <v>3</v>
       </c>
       <c r="U64" t="s">
-        <v>137</v>
-      </c>
-      <c r="V64">
-        <v>3</v>
-      </c>
-      <c r="W64" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O65" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P65">
         <v>3</v>
       </c>
       <c r="Q65" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R65">
-        <v>63</v>
+        <v>378</v>
       </c>
       <c r="S65" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T65">
-        <v>378</v>
+        <v>3</v>
       </c>
       <c r="U65" t="s">
-        <v>137</v>
-      </c>
-      <c r="V65">
-        <v>3</v>
-      </c>
-      <c r="W65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O66" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P66">
         <v>2</v>
       </c>
       <c r="Q66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R66">
-        <v>64</v>
+        <v>396</v>
       </c>
       <c r="S66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T66">
-        <v>396</v>
+        <v>3</v>
       </c>
       <c r="U66" t="s">
-        <v>137</v>
-      </c>
-      <c r="V66">
-        <v>3</v>
-      </c>
-      <c r="W66" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O67" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P67">
         <v>1</v>
       </c>
       <c r="Q67" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R67">
-        <v>65</v>
+        <v>414</v>
       </c>
       <c r="S67" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T67">
-        <v>414</v>
+        <v>3</v>
       </c>
       <c r="U67" t="s">
-        <v>137</v>
-      </c>
-      <c r="V67">
-        <v>3</v>
-      </c>
-      <c r="W67" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P68">
         <v>21</v>
       </c>
       <c r="Q68" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R68">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="S68" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T68">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="U68" t="s">
-        <v>137</v>
-      </c>
-      <c r="V68">
-        <v>4</v>
-      </c>
-      <c r="W68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P69">
         <v>22</v>
       </c>
       <c r="Q69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R69">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="S69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T69">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="U69" t="s">
-        <v>137</v>
-      </c>
-      <c r="V69">
-        <v>4</v>
-      </c>
-      <c r="W69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P70">
         <v>19</v>
       </c>
       <c r="Q70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R70">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="S70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T70">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="U70" t="s">
-        <v>137</v>
-      </c>
-      <c r="V70">
-        <v>4</v>
-      </c>
-      <c r="W70" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O71" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P71">
         <v>18</v>
       </c>
       <c r="Q71" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R71">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S71" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T71">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="U71" t="s">
-        <v>137</v>
-      </c>
-      <c r="V71">
-        <v>4</v>
-      </c>
-      <c r="W71" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O72" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P72">
         <v>17</v>
       </c>
       <c r="Q72" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R72">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="S72" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T72">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="U72" t="s">
-        <v>137</v>
-      </c>
-      <c r="V72">
-        <v>4</v>
-      </c>
-      <c r="W72" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="73" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O73" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P73">
         <v>16</v>
       </c>
       <c r="Q73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R73">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="S73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T73">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="U73" t="s">
-        <v>137</v>
-      </c>
-      <c r="V73">
-        <v>4</v>
-      </c>
-      <c r="W73" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O74" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P74">
         <v>15</v>
       </c>
       <c r="Q74" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R74">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="S74" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T74">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="U74" t="s">
-        <v>137</v>
-      </c>
-      <c r="V74">
-        <v>4</v>
-      </c>
-      <c r="W74" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O75" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P75">
         <v>14</v>
       </c>
       <c r="Q75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R75">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="S75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T75">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="U75" t="s">
-        <v>137</v>
-      </c>
-      <c r="V75">
-        <v>4</v>
-      </c>
-      <c r="W75" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="76" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O76" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P76">
         <v>13</v>
       </c>
       <c r="Q76" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R76">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="S76" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T76">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="U76" t="s">
-        <v>137</v>
-      </c>
-      <c r="V76">
-        <v>4</v>
-      </c>
-      <c r="W76" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O77" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P77">
         <v>12</v>
       </c>
       <c r="Q77" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R77">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="S77" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T77">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="U77" t="s">
-        <v>137</v>
-      </c>
-      <c r="V77">
-        <v>4</v>
-      </c>
-      <c r="W77" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="78" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O78" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P78">
         <v>11</v>
       </c>
       <c r="Q78" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R78">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="S78" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T78">
-        <v>198</v>
+        <v>4</v>
       </c>
       <c r="U78" t="s">
-        <v>137</v>
-      </c>
-      <c r="V78">
-        <v>4</v>
-      </c>
-      <c r="W78" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="79" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O79" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P79">
         <v>23</v>
       </c>
       <c r="Q79" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R79">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="S79" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T79">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="U79" t="s">
-        <v>137</v>
-      </c>
-      <c r="V79">
-        <v>4</v>
-      </c>
-      <c r="W79" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O80" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P80">
         <v>10</v>
       </c>
       <c r="Q80" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R80">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="S80" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T80">
-        <v>234</v>
+        <v>4</v>
       </c>
       <c r="U80" t="s">
-        <v>137</v>
-      </c>
-      <c r="V80">
-        <v>4</v>
-      </c>
-      <c r="W80" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O81" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P81">
         <v>9</v>
       </c>
       <c r="Q81" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R81">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="S81" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T81">
-        <v>252</v>
+        <v>4</v>
       </c>
       <c r="U81" t="s">
-        <v>137</v>
-      </c>
-      <c r="V81">
-        <v>4</v>
-      </c>
-      <c r="W81" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="82" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O82" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P82">
         <v>24</v>
       </c>
       <c r="Q82" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R82">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="S82" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T82">
-        <v>270</v>
+        <v>4</v>
       </c>
       <c r="U82" t="s">
-        <v>137</v>
-      </c>
-      <c r="V82">
-        <v>4</v>
-      </c>
-      <c r="W82" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="83" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O83" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P83">
         <v>25</v>
       </c>
       <c r="Q83" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R83">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="S83" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T83">
-        <v>288</v>
+        <v>4</v>
       </c>
       <c r="U83" t="s">
-        <v>137</v>
-      </c>
-      <c r="V83">
-        <v>4</v>
-      </c>
-      <c r="W83" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="84" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O84" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P84">
         <v>7</v>
       </c>
       <c r="Q84" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R84">
-        <v>82</v>
+        <v>306</v>
       </c>
       <c r="S84" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T84">
-        <v>306</v>
+        <v>4</v>
       </c>
       <c r="U84" t="s">
-        <v>137</v>
-      </c>
-      <c r="V84">
-        <v>4</v>
-      </c>
-      <c r="W84" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O85" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P85">
         <v>6</v>
       </c>
       <c r="Q85" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R85">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="S85" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T85">
-        <v>324</v>
+        <v>4</v>
       </c>
       <c r="U85" t="s">
-        <v>137</v>
-      </c>
-      <c r="V85">
-        <v>4</v>
-      </c>
-      <c r="W85" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O86" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P86">
         <v>5</v>
       </c>
       <c r="Q86" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R86">
-        <v>84</v>
+        <v>342</v>
       </c>
       <c r="S86" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T86">
-        <v>342</v>
+        <v>4</v>
       </c>
       <c r="U86" t="s">
-        <v>137</v>
-      </c>
-      <c r="V86">
-        <v>4</v>
-      </c>
-      <c r="W86" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O87" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P87">
         <v>4</v>
       </c>
       <c r="Q87" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R87">
-        <v>85</v>
+        <v>360</v>
       </c>
       <c r="S87" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T87">
-        <v>360</v>
+        <v>4</v>
       </c>
       <c r="U87" t="s">
-        <v>137</v>
-      </c>
-      <c r="V87">
-        <v>4</v>
-      </c>
-      <c r="W87" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="88" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O88" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P88">
         <v>3</v>
       </c>
       <c r="Q88" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R88">
-        <v>86</v>
+        <v>378</v>
       </c>
       <c r="S88" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T88">
-        <v>378</v>
+        <v>4</v>
       </c>
       <c r="U88" t="s">
-        <v>137</v>
-      </c>
-      <c r="V88">
-        <v>4</v>
-      </c>
-      <c r="W88" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="89" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O89" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P89">
         <v>2</v>
       </c>
       <c r="Q89" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R89">
-        <v>87</v>
+        <v>396</v>
       </c>
       <c r="S89" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T89">
-        <v>396</v>
+        <v>4</v>
       </c>
       <c r="U89" t="s">
-        <v>137</v>
-      </c>
-      <c r="V89">
-        <v>4</v>
-      </c>
-      <c r="W89" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O90" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P90">
         <v>1</v>
       </c>
       <c r="Q90" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R90">
-        <v>88</v>
+        <v>414</v>
       </c>
       <c r="S90" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T90">
-        <v>414</v>
+        <v>4</v>
       </c>
       <c r="U90" t="s">
-        <v>137</v>
-      </c>
-      <c r="V90">
-        <v>4</v>
-      </c>
-      <c r="W90" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O91" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P91">
         <v>1</v>
       </c>
       <c r="Q91" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R91">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="S91" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T91">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U91" t="s">
-        <v>137</v>
-      </c>
-      <c r="V91">
-        <v>5</v>
-      </c>
-      <c r="W91" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O92" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P92">
         <v>2</v>
       </c>
       <c r="Q92" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R92">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="S92" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T92">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="U92" t="s">
-        <v>137</v>
-      </c>
-      <c r="V92">
-        <v>5</v>
-      </c>
-      <c r="W92" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="93" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O93" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P93">
         <v>3</v>
       </c>
       <c r="Q93" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R93">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="S93" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T93">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="U93" t="s">
-        <v>137</v>
-      </c>
-      <c r="V93">
-        <v>5</v>
-      </c>
-      <c r="W93" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O94" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P94">
         <v>4</v>
       </c>
       <c r="Q94" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R94">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="S94" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T94">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="U94" t="s">
-        <v>137</v>
-      </c>
-      <c r="V94">
-        <v>5</v>
-      </c>
-      <c r="W94" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="95" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O95" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P95">
         <v>5</v>
       </c>
       <c r="Q95" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R95">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="S95" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T95">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="U95" t="s">
-        <v>137</v>
-      </c>
-      <c r="V95">
-        <v>5</v>
-      </c>
-      <c r="W95" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O96" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P96">
         <v>26</v>
       </c>
       <c r="Q96" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R96">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="S96" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T96">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="U96" t="s">
-        <v>137</v>
-      </c>
-      <c r="V96">
-        <v>5</v>
-      </c>
-      <c r="W96" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O97" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P97">
         <v>27</v>
       </c>
       <c r="Q97" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R97">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="S97" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T97">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="U97" t="s">
-        <v>137</v>
-      </c>
-      <c r="V97">
-        <v>5</v>
-      </c>
-      <c r="W97" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O98" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P98">
         <v>28</v>
       </c>
       <c r="Q98" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R98">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="S98" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T98">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="U98" t="s">
-        <v>137</v>
-      </c>
-      <c r="V98">
-        <v>5</v>
-      </c>
-      <c r="W98" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O99" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P99">
         <v>29</v>
       </c>
       <c r="Q99" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R99">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="S99" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T99">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="U99" t="s">
-        <v>137</v>
-      </c>
-      <c r="V99">
-        <v>5</v>
-      </c>
-      <c r="W99" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="100" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O100" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P100">
         <v>30</v>
       </c>
       <c r="Q100" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R100">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="S100" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T100">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="U100" t="s">
-        <v>137</v>
-      </c>
-      <c r="V100">
-        <v>5</v>
-      </c>
-      <c r="W100" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O101" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P101">
         <v>31</v>
       </c>
       <c r="Q101" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R101">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="S101" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T101">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="U101" t="s">
-        <v>137</v>
-      </c>
-      <c r="V101">
-        <v>5</v>
-      </c>
-      <c r="W101" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O102" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P102">
         <v>32</v>
       </c>
       <c r="Q102" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R102">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="S102" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T102">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="U102" t="s">
-        <v>137</v>
-      </c>
-      <c r="V102">
-        <v>5</v>
-      </c>
-      <c r="W102" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="103" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O103" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P103">
         <v>33</v>
       </c>
       <c r="Q103" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R103">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="S103" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T103">
-        <v>260</v>
+        <v>5</v>
       </c>
       <c r="U103" t="s">
-        <v>137</v>
-      </c>
-      <c r="V103">
-        <v>5</v>
-      </c>
-      <c r="W103" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O104" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P104">
         <v>34</v>
       </c>
       <c r="Q104" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R104">
-        <v>102</v>
+        <v>280</v>
       </c>
       <c r="S104" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T104">
-        <v>280</v>
+        <v>5</v>
       </c>
       <c r="U104" t="s">
-        <v>137</v>
-      </c>
-      <c r="V104">
-        <v>5</v>
-      </c>
-      <c r="W104" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="105" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O105" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P105">
         <v>12</v>
       </c>
       <c r="Q105" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R105">
-        <v>103</v>
+        <v>300</v>
       </c>
       <c r="S105" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T105">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="U105" t="s">
-        <v>137</v>
-      </c>
-      <c r="V105">
-        <v>5</v>
-      </c>
-      <c r="W105" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O106" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P106">
         <v>13</v>
       </c>
       <c r="Q106" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R106">
-        <v>104</v>
+        <v>320</v>
       </c>
       <c r="S106" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T106">
-        <v>320</v>
+        <v>5</v>
       </c>
       <c r="U106" t="s">
-        <v>137</v>
-      </c>
-      <c r="V106">
-        <v>5</v>
-      </c>
-      <c r="W106" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="107" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O107" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P107">
         <v>14</v>
       </c>
       <c r="Q107" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R107">
-        <v>105</v>
+        <v>340</v>
       </c>
       <c r="S107" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T107">
-        <v>340</v>
+        <v>5</v>
       </c>
       <c r="U107" t="s">
-        <v>137</v>
-      </c>
-      <c r="V107">
-        <v>5</v>
-      </c>
-      <c r="W107" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="108" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O108" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P108">
         <v>15</v>
       </c>
       <c r="Q108" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R108">
-        <v>106</v>
+        <v>360</v>
       </c>
       <c r="S108" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T108">
-        <v>360</v>
+        <v>5</v>
       </c>
       <c r="U108" t="s">
-        <v>137</v>
-      </c>
-      <c r="V108">
-        <v>5</v>
-      </c>
-      <c r="W108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O109" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P109">
         <v>35</v>
       </c>
       <c r="Q109" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R109">
-        <v>107</v>
+        <v>380</v>
       </c>
       <c r="S109" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T109">
-        <v>380</v>
+        <v>5</v>
       </c>
       <c r="U109" t="s">
-        <v>137</v>
-      </c>
-      <c r="V109">
-        <v>5</v>
-      </c>
-      <c r="W109" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O110" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P110">
         <v>36</v>
       </c>
       <c r="Q110" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R110">
-        <v>108</v>
+        <v>400</v>
       </c>
       <c r="S110" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T110">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="U110" t="s">
-        <v>137</v>
-      </c>
-      <c r="V110">
-        <v>5</v>
-      </c>
-      <c r="W110" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O111" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P111">
         <v>37</v>
       </c>
       <c r="Q111" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R111">
-        <v>109</v>
+        <v>420</v>
       </c>
       <c r="S111" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T111">
-        <v>420</v>
+        <v>5</v>
       </c>
       <c r="U111" t="s">
-        <v>137</v>
-      </c>
-      <c r="V111">
-        <v>5</v>
-      </c>
-      <c r="W111" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O112" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P112">
         <v>1</v>
       </c>
       <c r="Q112" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R112">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="S112" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T112">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="U112" t="s">
-        <v>137</v>
-      </c>
-      <c r="V112">
-        <v>6</v>
-      </c>
-      <c r="W112" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O113" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P113">
         <v>2</v>
       </c>
       <c r="Q113" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R113">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="S113" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T113">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="U113" t="s">
-        <v>137</v>
-      </c>
-      <c r="V113">
-        <v>6</v>
-      </c>
-      <c r="W113" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O114" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P114">
         <v>3</v>
       </c>
       <c r="Q114" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R114">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="S114" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T114">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="U114" t="s">
-        <v>137</v>
-      </c>
-      <c r="V114">
-        <v>6</v>
-      </c>
-      <c r="W114" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="115" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O115" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P115">
         <v>4</v>
       </c>
       <c r="Q115" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R115">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="S115" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T115">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="U115" t="s">
-        <v>137</v>
-      </c>
-      <c r="V115">
-        <v>6</v>
-      </c>
-      <c r="W115" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="116" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O116" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P116">
         <v>5</v>
       </c>
       <c r="Q116" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R116">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="S116" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T116">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="U116" t="s">
-        <v>137</v>
-      </c>
-      <c r="V116">
-        <v>6</v>
-      </c>
-      <c r="W116" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="117" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O117" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P117">
         <v>26</v>
       </c>
       <c r="Q117" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R117">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S117" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T117">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="U117" t="s">
-        <v>137</v>
-      </c>
-      <c r="V117">
-        <v>6</v>
-      </c>
-      <c r="W117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O118" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P118">
         <v>27</v>
       </c>
       <c r="Q118" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R118">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="S118" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T118">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="U118" t="s">
-        <v>137</v>
-      </c>
-      <c r="V118">
-        <v>6</v>
-      </c>
-      <c r="W118" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="119" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="119" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O119" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P119">
         <v>28</v>
       </c>
       <c r="Q119" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R119">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="S119" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T119">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="U119" t="s">
-        <v>137</v>
-      </c>
-      <c r="V119">
-        <v>6</v>
-      </c>
-      <c r="W119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O120" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P120">
         <v>29</v>
       </c>
       <c r="Q120" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R120">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="S120" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T120">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="U120" t="s">
-        <v>137</v>
-      </c>
-      <c r="V120">
-        <v>6</v>
-      </c>
-      <c r="W120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O121" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P121">
         <v>30</v>
       </c>
       <c r="Q121" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R121">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="S121" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T121">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="U121" t="s">
-        <v>137</v>
-      </c>
-      <c r="V121">
-        <v>6</v>
-      </c>
-      <c r="W121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O122" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P122">
         <v>31</v>
       </c>
       <c r="Q122" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R122">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="S122" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T122">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="U122" t="s">
-        <v>137</v>
-      </c>
-      <c r="V122">
-        <v>6</v>
-      </c>
-      <c r="W122" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="123" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O123" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P123">
         <v>32</v>
       </c>
       <c r="Q123" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R123">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="S123" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T123">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="U123" t="s">
-        <v>137</v>
-      </c>
-      <c r="V123">
-        <v>6</v>
-      </c>
-      <c r="W123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="124" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O124" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P124">
         <v>33</v>
       </c>
       <c r="Q124" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R124">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="S124" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T124">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="U124" t="s">
-        <v>137</v>
-      </c>
-      <c r="V124">
-        <v>6</v>
-      </c>
-      <c r="W124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O125" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P125">
         <v>34</v>
       </c>
       <c r="Q125" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R125">
-        <v>123</v>
+        <v>280</v>
       </c>
       <c r="S125" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T125">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="U125" t="s">
-        <v>137</v>
-      </c>
-      <c r="V125">
-        <v>6</v>
-      </c>
-      <c r="W125" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="126" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="126" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O126" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P126">
         <v>12</v>
       </c>
       <c r="Q126" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R126">
-        <v>124</v>
+        <v>300</v>
       </c>
       <c r="S126" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T126">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="U126" t="s">
-        <v>137</v>
-      </c>
-      <c r="V126">
-        <v>6</v>
-      </c>
-      <c r="W126" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="127" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="127" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O127" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P127">
         <v>13</v>
       </c>
       <c r="Q127" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R127">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="S127" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T127">
-        <v>320</v>
+        <v>6</v>
       </c>
       <c r="U127" t="s">
-        <v>137</v>
-      </c>
-      <c r="V127">
-        <v>6</v>
-      </c>
-      <c r="W127" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="128" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O128" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P128">
         <v>14</v>
       </c>
       <c r="Q128" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R128">
-        <v>126</v>
+        <v>340</v>
       </c>
       <c r="S128" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T128">
-        <v>340</v>
+        <v>6</v>
       </c>
       <c r="U128" t="s">
-        <v>137</v>
-      </c>
-      <c r="V128">
-        <v>6</v>
-      </c>
-      <c r="W128" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="129" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O129" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P129">
         <v>15</v>
       </c>
       <c r="Q129" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R129">
-        <v>127</v>
+        <v>360</v>
       </c>
       <c r="S129" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T129">
-        <v>360</v>
+        <v>6</v>
       </c>
       <c r="U129" t="s">
-        <v>137</v>
-      </c>
-      <c r="V129">
-        <v>6</v>
-      </c>
-      <c r="W129" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="130" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O130" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P130">
         <v>35</v>
       </c>
       <c r="Q130" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R130">
-        <v>128</v>
+        <v>380</v>
       </c>
       <c r="S130" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T130">
-        <v>380</v>
+        <v>6</v>
       </c>
       <c r="U130" t="s">
-        <v>137</v>
-      </c>
-      <c r="V130">
-        <v>6</v>
-      </c>
-      <c r="W130" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="131" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O131" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P131">
         <v>36</v>
       </c>
       <c r="Q131" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R131">
-        <v>129</v>
+        <v>400</v>
       </c>
       <c r="S131" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T131">
-        <v>400</v>
+        <v>6</v>
       </c>
       <c r="U131" t="s">
-        <v>137</v>
-      </c>
-      <c r="V131">
-        <v>6</v>
-      </c>
-      <c r="W131" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="132" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O132" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P132">
         <v>37</v>
       </c>
       <c r="Q132" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R132">
-        <v>130</v>
+        <v>420</v>
       </c>
       <c r="S132" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T132">
-        <v>420</v>
+        <v>6</v>
       </c>
       <c r="U132" t="s">
-        <v>137</v>
-      </c>
-      <c r="V132">
-        <v>6</v>
-      </c>
-      <c r="W132" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="133" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O133" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P133">
         <v>37</v>
       </c>
       <c r="Q133" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R133">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="S133" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T133">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="U133" t="s">
-        <v>137</v>
-      </c>
-      <c r="V133">
-        <v>7</v>
-      </c>
-      <c r="W133" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O134" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P134">
         <v>36</v>
       </c>
       <c r="Q134" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R134">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="S134" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T134">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="U134" t="s">
-        <v>137</v>
-      </c>
-      <c r="V134">
-        <v>7</v>
-      </c>
-      <c r="W134" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="135" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O135" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P135">
         <v>35</v>
       </c>
       <c r="Q135" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R135">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="S135" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T135">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="U135" t="s">
-        <v>137</v>
-      </c>
-      <c r="V135">
-        <v>7</v>
-      </c>
-      <c r="W135" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="136" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O136" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P136">
         <v>15</v>
       </c>
       <c r="Q136" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R136">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="S136" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T136">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="U136" t="s">
-        <v>137</v>
-      </c>
-      <c r="V136">
-        <v>7</v>
-      </c>
-      <c r="W136" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="137" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O137" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P137">
         <v>14</v>
       </c>
       <c r="Q137" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R137">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="S137" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T137">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="U137" t="s">
-        <v>137</v>
-      </c>
-      <c r="V137">
-        <v>7</v>
-      </c>
-      <c r="W137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O138" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P138">
         <v>13</v>
       </c>
       <c r="Q138" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R138">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="S138" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T138">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="U138" t="s">
-        <v>137</v>
-      </c>
-      <c r="V138">
-        <v>7</v>
-      </c>
-      <c r="W138" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="139" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O139" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P139">
         <v>12</v>
       </c>
       <c r="Q139" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R139">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="S139" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T139">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="U139" t="s">
-        <v>137</v>
-      </c>
-      <c r="V139">
-        <v>7</v>
-      </c>
-      <c r="W139" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="140" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O140" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P140">
         <v>34</v>
       </c>
       <c r="Q140" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R140">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="S140" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T140">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="U140" t="s">
-        <v>137</v>
-      </c>
-      <c r="V140">
-        <v>7</v>
-      </c>
-      <c r="W140" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="141" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O141" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P141">
         <v>33</v>
       </c>
       <c r="Q141" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R141">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="S141" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T141">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="U141" t="s">
-        <v>137</v>
-      </c>
-      <c r="V141">
-        <v>7</v>
-      </c>
-      <c r="W141" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="142" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="142" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O142" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P142">
         <v>32</v>
       </c>
       <c r="Q142" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R142">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="S142" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T142">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="U142" t="s">
-        <v>137</v>
-      </c>
-      <c r="V142">
-        <v>7</v>
-      </c>
-      <c r="W142" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="143" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="143" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O143" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P143">
         <v>31</v>
       </c>
       <c r="Q143" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R143">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="S143" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T143">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="U143" t="s">
-        <v>137</v>
-      </c>
-      <c r="V143">
-        <v>7</v>
-      </c>
-      <c r="W143" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="144" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="144" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O144" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P144">
         <v>30</v>
       </c>
       <c r="Q144" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R144">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="S144" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T144">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="U144" t="s">
-        <v>137</v>
-      </c>
-      <c r="V144">
-        <v>7</v>
-      </c>
-      <c r="W144" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="145" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="145" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O145" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P145">
         <v>29</v>
       </c>
       <c r="Q145" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R145">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="S145" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T145">
-        <v>260</v>
+        <v>7</v>
       </c>
       <c r="U145" t="s">
-        <v>137</v>
-      </c>
-      <c r="V145">
-        <v>7</v>
-      </c>
-      <c r="W145" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="146" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="146" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O146" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P146">
         <v>28</v>
       </c>
       <c r="Q146" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R146">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="S146" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T146">
-        <v>280</v>
+        <v>7</v>
       </c>
       <c r="U146" t="s">
-        <v>137</v>
-      </c>
-      <c r="V146">
-        <v>7</v>
-      </c>
-      <c r="W146" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="147" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O147" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P147">
         <v>27</v>
       </c>
       <c r="Q147" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R147">
-        <v>145</v>
+        <v>300</v>
       </c>
       <c r="S147" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T147">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="U147" t="s">
-        <v>137</v>
-      </c>
-      <c r="V147">
-        <v>7</v>
-      </c>
-      <c r="W147" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="148" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="148" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O148" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P148">
         <v>26</v>
       </c>
       <c r="Q148" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R148">
-        <v>146</v>
+        <v>320</v>
       </c>
       <c r="S148" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T148">
-        <v>320</v>
+        <v>7</v>
       </c>
       <c r="U148" t="s">
-        <v>137</v>
-      </c>
-      <c r="V148">
-        <v>7</v>
-      </c>
-      <c r="W148" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="149" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="149" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O149" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P149">
         <v>5</v>
       </c>
       <c r="Q149" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R149">
-        <v>147</v>
+        <v>340</v>
       </c>
       <c r="S149" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T149">
-        <v>340</v>
+        <v>7</v>
       </c>
       <c r="U149" t="s">
-        <v>137</v>
-      </c>
-      <c r="V149">
-        <v>7</v>
-      </c>
-      <c r="W149" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="150" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="150" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O150" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P150">
         <v>4</v>
       </c>
       <c r="Q150" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R150">
-        <v>148</v>
+        <v>360</v>
       </c>
       <c r="S150" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T150">
-        <v>360</v>
+        <v>7</v>
       </c>
       <c r="U150" t="s">
-        <v>137</v>
-      </c>
-      <c r="V150">
-        <v>7</v>
-      </c>
-      <c r="W150" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="151" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="151" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O151" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P151">
         <v>3</v>
       </c>
       <c r="Q151" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R151">
-        <v>149</v>
+        <v>380</v>
       </c>
       <c r="S151" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T151">
-        <v>380</v>
+        <v>7</v>
       </c>
       <c r="U151" t="s">
-        <v>137</v>
-      </c>
-      <c r="V151">
-        <v>7</v>
-      </c>
-      <c r="W151" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="152" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="152" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O152" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P152">
         <v>2</v>
       </c>
       <c r="Q152" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R152">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="S152" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T152">
-        <v>400</v>
+        <v>7</v>
       </c>
       <c r="U152" t="s">
-        <v>137</v>
-      </c>
-      <c r="V152">
-        <v>7</v>
-      </c>
-      <c r="W152" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="153" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="153" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O153" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P153">
         <v>1</v>
       </c>
       <c r="Q153" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R153">
-        <v>151</v>
+        <v>420</v>
       </c>
       <c r="S153" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T153">
-        <v>420</v>
+        <v>7</v>
       </c>
       <c r="U153" t="s">
-        <v>137</v>
-      </c>
-      <c r="V153">
-        <v>7</v>
-      </c>
-      <c r="W153" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="154" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="154" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O154" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P154">
         <v>37</v>
       </c>
       <c r="Q154" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R154">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="S154" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T154">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="U154" t="s">
-        <v>137</v>
-      </c>
-      <c r="V154">
-        <v>8</v>
-      </c>
-      <c r="W154" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="155" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="155" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O155" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P155">
         <v>36</v>
       </c>
       <c r="Q155" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R155">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="S155" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T155">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="U155" t="s">
-        <v>137</v>
-      </c>
-      <c r="V155">
-        <v>8</v>
-      </c>
-      <c r="W155" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="156" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="156" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O156" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P156">
         <v>35</v>
       </c>
       <c r="Q156" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R156">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="S156" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T156">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="U156" t="s">
-        <v>137</v>
-      </c>
-      <c r="V156">
-        <v>8</v>
-      </c>
-      <c r="W156" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="157" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="157" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O157" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P157">
         <v>15</v>
       </c>
       <c r="Q157" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R157">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="S157" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T157">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="U157" t="s">
-        <v>137</v>
-      </c>
-      <c r="V157">
-        <v>8</v>
-      </c>
-      <c r="W157" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="158" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="158" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O158" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P158">
         <v>14</v>
       </c>
       <c r="Q158" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R158">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="S158" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T158">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="U158" t="s">
-        <v>137</v>
-      </c>
-      <c r="V158">
-        <v>8</v>
-      </c>
-      <c r="W158" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="159" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="159" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O159" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P159">
         <v>13</v>
       </c>
       <c r="Q159" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R159">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="S159" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T159">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="U159" t="s">
-        <v>137</v>
-      </c>
-      <c r="V159">
-        <v>8</v>
-      </c>
-      <c r="W159" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="160" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="160" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O160" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P160">
         <v>12</v>
       </c>
       <c r="Q160" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R160">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="S160" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T160">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="U160" t="s">
-        <v>137</v>
-      </c>
-      <c r="V160">
-        <v>8</v>
-      </c>
-      <c r="W160" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="161" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="161" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O161" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P161">
         <v>34</v>
       </c>
       <c r="Q161" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R161">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S161" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T161">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="U161" t="s">
-        <v>137</v>
-      </c>
-      <c r="V161">
-        <v>8</v>
-      </c>
-      <c r="W161" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="162" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="162" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O162" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P162">
         <v>33</v>
       </c>
       <c r="Q162" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R162">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="S162" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T162">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="U162" t="s">
-        <v>137</v>
-      </c>
-      <c r="V162">
-        <v>8</v>
-      </c>
-      <c r="W162" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="163" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="163" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O163" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P163">
         <v>32</v>
       </c>
       <c r="Q163" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R163">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="S163" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T163">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="U163" t="s">
-        <v>137</v>
-      </c>
-      <c r="V163">
-        <v>8</v>
-      </c>
-      <c r="W163" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="164" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="164" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O164" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P164">
         <v>31</v>
       </c>
       <c r="Q164" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R164">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="S164" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T164">
-        <v>220</v>
+        <v>8</v>
       </c>
       <c r="U164" t="s">
-        <v>137</v>
-      </c>
-      <c r="V164">
-        <v>8</v>
-      </c>
-      <c r="W164" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="165" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="165" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O165" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P165">
         <v>30</v>
       </c>
       <c r="Q165" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R165">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="S165" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T165">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="U165" t="s">
-        <v>137</v>
-      </c>
-      <c r="V165">
-        <v>8</v>
-      </c>
-      <c r="W165" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="166" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="166" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O166" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P166">
         <v>29</v>
       </c>
       <c r="Q166" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R166">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="S166" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T166">
-        <v>260</v>
+        <v>8</v>
       </c>
       <c r="U166" t="s">
-        <v>137</v>
-      </c>
-      <c r="V166">
-        <v>8</v>
-      </c>
-      <c r="W166" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="167" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="167" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O167" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P167">
         <v>28</v>
       </c>
       <c r="Q167" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R167">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="S167" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T167">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="U167" t="s">
-        <v>137</v>
-      </c>
-      <c r="V167">
-        <v>8</v>
-      </c>
-      <c r="W167" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="168" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="168" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O168" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P168">
         <v>27</v>
       </c>
       <c r="Q168" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R168">
-        <v>166</v>
+        <v>300</v>
       </c>
       <c r="S168" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T168">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="U168" t="s">
-        <v>137</v>
-      </c>
-      <c r="V168">
-        <v>8</v>
-      </c>
-      <c r="W168" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="169" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="169" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O169" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P169">
         <v>26</v>
       </c>
       <c r="Q169" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R169">
-        <v>167</v>
+        <v>320</v>
       </c>
       <c r="S169" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T169">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="U169" t="s">
-        <v>137</v>
-      </c>
-      <c r="V169">
-        <v>8</v>
-      </c>
-      <c r="W169" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="170" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="170" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O170" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P170">
         <v>5</v>
       </c>
       <c r="Q170" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R170">
-        <v>168</v>
+        <v>340</v>
       </c>
       <c r="S170" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T170">
-        <v>340</v>
+        <v>8</v>
       </c>
       <c r="U170" t="s">
-        <v>137</v>
-      </c>
-      <c r="V170">
-        <v>8</v>
-      </c>
-      <c r="W170" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="171" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="171" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O171" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P171">
         <v>4</v>
       </c>
       <c r="Q171" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R171">
-        <v>169</v>
+        <v>360</v>
       </c>
       <c r="S171" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T171">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="U171" t="s">
-        <v>137</v>
-      </c>
-      <c r="V171">
-        <v>8</v>
-      </c>
-      <c r="W171" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="172" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="172" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O172" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P172">
         <v>3</v>
       </c>
       <c r="Q172" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R172">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="S172" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T172">
-        <v>380</v>
+        <v>8</v>
       </c>
       <c r="U172" t="s">
-        <v>137</v>
-      </c>
-      <c r="V172">
-        <v>8</v>
-      </c>
-      <c r="W172" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="173" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="173" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O173" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P173">
         <v>2</v>
       </c>
       <c r="Q173" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R173">
-        <v>171</v>
+        <v>400</v>
       </c>
       <c r="S173" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T173">
-        <v>400</v>
+        <v>8</v>
       </c>
       <c r="U173" t="s">
-        <v>137</v>
-      </c>
-      <c r="V173">
-        <v>8</v>
-      </c>
-      <c r="W173" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="174" spans="15:23" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="174" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O174" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P174">
         <v>1</v>
       </c>
       <c r="Q174" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R174">
-        <v>172</v>
+        <v>420</v>
       </c>
       <c r="S174" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T174">
-        <v>420</v>
+        <v>8</v>
       </c>
       <c r="U174" t="s">
-        <v>137</v>
-      </c>
-      <c r="V174">
-        <v>8</v>
-      </c>
-      <c r="W174" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
